--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,44 +4,46 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="17" activeTab="23"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800"/>
   </bookViews>
   <sheets>
-    <sheet name="ConsumerPrepaid_Provisioning" sheetId="1" r:id="rId1"/>
-    <sheet name="EnterprisePrepaid_Provisioning" sheetId="3" r:id="rId2"/>
-    <sheet name="EnterprisePostpaid_Provisioning" sheetId="4" r:id="rId3"/>
-    <sheet name="ConsumerPostpaid_Provisioning" sheetId="2" r:id="rId4"/>
-    <sheet name="SIPT" sheetId="14" r:id="rId5"/>
-    <sheet name="Modify" sheetId="6" r:id="rId6"/>
-    <sheet name="SIMSwap" sheetId="12" r:id="rId7"/>
-    <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId8"/>
-    <sheet name="Disconnection" sheetId="22" r:id="rId9"/>
-    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId10"/>
-    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId11"/>
-    <sheet name="TroubleTicket" sheetId="23" r:id="rId12"/>
-    <sheet name="Discounts" sheetId="24" r:id="rId13"/>
-    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId14"/>
-    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId15"/>
-    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId16"/>
-    <sheet name="TransferOfService" sheetId="29" r:id="rId17"/>
-    <sheet name="TransferOfOwnership" sheetId="33" r:id="rId18"/>
-    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId19"/>
-    <sheet name="Suspend" sheetId="7" r:id="rId20"/>
-    <sheet name="Resume" sheetId="8" r:id="rId21"/>
-    <sheet name="UpgradePromotion_Account360" sheetId="34" r:id="rId22"/>
-    <sheet name="Account360view" sheetId="35" r:id="rId23"/>
-    <sheet name="CustomerSegment" sheetId="36" r:id="rId24"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId25"/>
-    <sheet name="Barring" sheetId="15" r:id="rId26"/>
-    <sheet name="UnBarring" sheetId="16" r:id="rId27"/>
-    <sheet name="Change_MSISDN" sheetId="17" r:id="rId28"/>
-    <sheet name="Consumer_Migration" sheetId="18" r:id="rId29"/>
-    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId30"/>
-    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId31"/>
-    <sheet name="BillPayment" sheetId="21" r:id="rId32"/>
+    <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
+    <sheet name="EnterprisePrepaid_Provision" sheetId="3" r:id="rId2"/>
+    <sheet name="EnterprisePostpaid_Provision" sheetId="4" r:id="rId3"/>
+    <sheet name="EntPostpaid_Provision_OrdPay" sheetId="38" r:id="rId4"/>
+    <sheet name="ConsumerPostpaid_Provision" sheetId="2" r:id="rId5"/>
+    <sheet name="ConPostPaid_Provision_OrdPay" sheetId="37" r:id="rId6"/>
+    <sheet name="SIPT" sheetId="14" r:id="rId7"/>
+    <sheet name="Modify" sheetId="6" r:id="rId8"/>
+    <sheet name="SIMSwap" sheetId="12" r:id="rId9"/>
+    <sheet name="Plan_UpgradeDowngrade" sheetId="9" r:id="rId10"/>
+    <sheet name="Disconnection" sheetId="22" r:id="rId11"/>
+    <sheet name="EnterpriseFixedLine_Provision" sheetId="31" r:id="rId12"/>
+    <sheet name="ConsumerFixedLine_Provision" sheetId="30" r:id="rId13"/>
+    <sheet name="TroubleTicket" sheetId="23" r:id="rId14"/>
+    <sheet name="Discounts" sheetId="24" r:id="rId15"/>
+    <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId16"/>
+    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId17"/>
+    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId18"/>
+    <sheet name="TransferOfService" sheetId="29" r:id="rId19"/>
+    <sheet name="TransferOfOwnership" sheetId="33" r:id="rId20"/>
+    <sheet name="Suspend" sheetId="7" r:id="rId21"/>
+    <sheet name="Resume" sheetId="8" r:id="rId22"/>
+    <sheet name="UpgradePromotion_Account360" sheetId="34" r:id="rId23"/>
+    <sheet name="Account360view" sheetId="35" r:id="rId24"/>
+    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId25"/>
+    <sheet name="Change_MSISDN" sheetId="17" r:id="rId26"/>
+    <sheet name="Consumer_Migration" sheetId="18" r:id="rId27"/>
+    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId28"/>
+    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId29"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId30"/>
+    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId31"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId32"/>
+    <sheet name="Barring" sheetId="15" r:id="rId33"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId34"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId33"/>
+    <externalReference r:id="rId35"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="442">
   <si>
     <t>TestCase</t>
   </si>
@@ -1266,13 +1268,124 @@
   </si>
   <si>
     <t>VFQATEST_XR188_DataPlan200_Iv VFQATEST_XR188_DataPlan200_Iv</t>
+  </si>
+  <si>
+    <t>97470899087</t>
+  </si>
+  <si>
+    <t>97489755046</t>
+  </si>
+  <si>
+    <t>97478151045</t>
+  </si>
+  <si>
+    <t>97489756692</t>
+  </si>
+  <si>
+    <t>97478152922</t>
+  </si>
+  <si>
+    <t>97478151043</t>
+  </si>
+  <si>
+    <t>99900007765</t>
+  </si>
+  <si>
+    <t>23457</t>
+  </si>
+  <si>
+    <t>454345</t>
+  </si>
+  <si>
+    <t>8959436734</t>
+  </si>
+  <si>
+    <t>5637448925</t>
+  </si>
+  <si>
+    <t>7321895097</t>
+  </si>
+  <si>
+    <t>7779562981</t>
+  </si>
+  <si>
+    <t>9811140835</t>
+  </si>
+  <si>
+    <t>7769191001</t>
+  </si>
+  <si>
+    <t>Royal_ContactID</t>
+  </si>
+  <si>
+    <t>Royal_AccountName</t>
+  </si>
+  <si>
+    <t>Royal_AccountNumber</t>
+  </si>
+  <si>
+    <t>Black_ContactID</t>
+  </si>
+  <si>
+    <t>Black_AccountName</t>
+  </si>
+  <si>
+    <t>Black_AccountNumber</t>
+  </si>
+  <si>
+    <t>VVIP_ContactID</t>
+  </si>
+  <si>
+    <t>VVIP_AccountName</t>
+  </si>
+  <si>
+    <t>VVIP_AccountNumber</t>
+  </si>
+  <si>
+    <t>VIP_ContactID</t>
+  </si>
+  <si>
+    <t>VIP_AccountName</t>
+  </si>
+  <si>
+    <t>VIP_AccountNumber</t>
+  </si>
+  <si>
+    <t>Qatari_ContactID</t>
+  </si>
+  <si>
+    <t>Qatari_AccountName</t>
+  </si>
+  <si>
+    <t>Qatari_AccountNumber</t>
+  </si>
+  <si>
+    <t>Expatriate_ContactID</t>
+  </si>
+  <si>
+    <t>Expatriate_AccountName</t>
+  </si>
+  <si>
+    <t>Expatriate_AccountNumber</t>
+  </si>
+  <si>
+    <t>PayType</t>
+  </si>
+  <si>
+    <t>PaymentReference</t>
+  </si>
+  <si>
+    <t>TransactionAmt</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1370,6 +1483,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1491,7 +1611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1563,11 +1683,58 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2366,8 +2533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2705,22 +2872,192 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="33" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN3"/>
   <sheetViews>
@@ -3006,7 +3343,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
@@ -3303,7 +3640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I205"/>
   <sheetViews>
@@ -4541,7 +4878,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
@@ -4604,7 +4941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -4675,7 +5012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
@@ -4889,7 +5226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -4962,7 +5299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB4"/>
   <sheetViews>
@@ -5252,358 +5589,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB4"/>
-  <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AE26" sqref="AE26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" t="str">
-        <f>CONCATENATE(A2,"_Test")</f>
-        <v>ConsumerPrepaid_Test</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D5" si="0">CONCATENATE(A3,"_Test")</f>
-        <v>ConsumerPostpaid_Test</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>EnterprisePostpaid_Test</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>EnterprisePrepaid_Test</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL5"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:AF1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5903,12 +5894,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V3">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5916,73 +5907,274 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="E1" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5992,16 +6184,16 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -6062,10 +6254,83 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6081,10 +6346,10 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D1" s="17" t="s">
@@ -6151,12 +6416,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6165,10 +6430,10 @@
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>98</v>
       </c>
       <c r="D1" s="17" t="s">
@@ -6235,12 +6500,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6248,126 +6513,410 @@
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="H1" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="L1" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="P1" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="T1" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="W1" s="18" t="s">
         <v>381</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="X1" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="AB1" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="C2" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="AB2" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="D3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="T3" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="X3" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="AB3" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="C4" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="AB4" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="C5" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="AB5" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="I6" s="19" t="s">
+      <c r="E6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I6" t="s">
+        <v>395</v>
+      </c>
+      <c r="M6" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>400</v>
+      </c>
+      <c r="U6" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="AB6" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="AB7" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="D8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="T8" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="X8" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="AB8" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" s="26" t="s">
         <v>91</v>
       </c>
@@ -6383,8 +6932,11 @@
       <c r="G10" s="27" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C11" s="30">
         <v>97470899087</v>
       </c>
@@ -6400,8 +6952,11 @@
       <c r="G11" s="31" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C12" s="30">
         <v>97489755046</v>
       </c>
@@ -6417,8 +6972,11 @@
       <c r="G12" s="31" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C13" s="30">
         <v>97489756692</v>
       </c>
@@ -6434,8 +6992,11 @@
       <c r="G13" s="31" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C14" s="30">
         <v>97478151045</v>
       </c>
@@ -6451,8 +7012,11 @@
       <c r="G14" s="31" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="30">
         <v>97478152922</v>
       </c>
@@ -6468,8 +7032,11 @@
       <c r="G15" s="31" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:28" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C16" s="30">
         <v>97478151043</v>
       </c>
@@ -6485,82 +7052,12 @@
       <c r="G16" s="31" t="s">
         <v>365</v>
       </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="32"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6569,168 +7066,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6740,7 +7079,7 @@
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6753,7 +7092,7 @@
       <c r="D1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="18" t="s">
         <v>132</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -6812,7 +7151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -6898,6 +7237,145 @@
       <c r="I3" s="3"/>
       <c r="J3" t="s">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7222,12 +7700,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V3">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7235,149 +7713,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7389,19 +7728,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7414,6 +7753,309 @@
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" t="str">
+        <f>CONCATENATE(A2,"_Test")</f>
+        <v>ConsumerPrepaid_Test</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="0">CONCATENATE(A3,"_Test")</f>
+        <v>ConsumerPostpaid_Test</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>EnterprisePostpaid_Test</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>EnterprisePrepaid_Test</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7422,10 +8064,393 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AQ11"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="6"/>
+      <c r="K2" t="s">
+        <v>137</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="6"/>
+      <c r="Q3" s="9"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="3"/>
+      <c r="AF3" s="6"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="AL5" s="6"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L1:M1">
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y2:Y3">
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+      <selection activeCell="Z20" sqref="Z20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7870,7 +8895,536 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2"/>
+      <c r="X2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="W3"/>
+      <c r="X3"/>
+      <c r="Z3"/>
+      <c r="AA3"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4"/>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="I4" s="6"/>
+      <c r="J4"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AG4"/>
+      <c r="AI4"/>
+    </row>
+    <row r="5" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="I5" s="6"/>
+      <c r="J5"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="6"/>
+      <c r="AG5"/>
+      <c r="AI5"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="3"/>
+      <c r="Z6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB6" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ6" s="3"/>
+    </row>
+    <row r="7" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7"/>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7"/>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W7"/>
+      <c r="X7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS7"/>
   <sheetViews>
@@ -8253,7 +9807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -8332,7 +9886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -8398,174 +9952,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -23,27 +23,29 @@
     <sheet name="TroubleTicket" sheetId="23" r:id="rId14"/>
     <sheet name="Discounts" sheetId="24" r:id="rId15"/>
     <sheet name="BillGeneration_AccountLevel" sheetId="25" r:id="rId16"/>
-    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId17"/>
-    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId18"/>
-    <sheet name="TransferOfService" sheetId="29" r:id="rId19"/>
-    <sheet name="TransferOfOwnership" sheetId="33" r:id="rId20"/>
-    <sheet name="Suspend" sheetId="7" r:id="rId21"/>
-    <sheet name="Resume" sheetId="8" r:id="rId22"/>
-    <sheet name="UpgradePromotion_Account360" sheetId="34" r:id="rId23"/>
-    <sheet name="Account360view" sheetId="35" r:id="rId24"/>
-    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId25"/>
-    <sheet name="Change_MSISDN" sheetId="17" r:id="rId26"/>
-    <sheet name="Consumer_Migration" sheetId="18" r:id="rId27"/>
-    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId28"/>
-    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId29"/>
-    <sheet name="BillPayment" sheetId="21" r:id="rId30"/>
-    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId31"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId32"/>
-    <sheet name="Barring" sheetId="15" r:id="rId33"/>
-    <sheet name="UnBarring" sheetId="16" r:id="rId34"/>
+    <sheet name="InvoiceToPDF_Generation" sheetId="39" r:id="rId17"/>
+    <sheet name="LocalCall" sheetId="40" r:id="rId18"/>
+    <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId19"/>
+    <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId20"/>
+    <sheet name="TransferOfService" sheetId="29" r:id="rId21"/>
+    <sheet name="TransferOfOwnership" sheetId="33" r:id="rId22"/>
+    <sheet name="Suspend" sheetId="7" r:id="rId23"/>
+    <sheet name="Resume" sheetId="8" r:id="rId24"/>
+    <sheet name="UpgradePromotion_Account360" sheetId="34" r:id="rId25"/>
+    <sheet name="Account360view" sheetId="35" r:id="rId26"/>
+    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId27"/>
+    <sheet name="Change_MSISDN" sheetId="17" r:id="rId28"/>
+    <sheet name="Consumer_Migration" sheetId="18" r:id="rId29"/>
+    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId30"/>
+    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId31"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId32"/>
+    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId33"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId34"/>
+    <sheet name="Barring" sheetId="15" r:id="rId35"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId36"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId35"/>
+    <externalReference r:id="rId37"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -53,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="444">
   <si>
     <t>TestCase</t>
   </si>
@@ -1379,6 +1381,12 @@
   </si>
   <si>
     <t>Cash</t>
+  </si>
+  <si>
+    <t>Beyond_PVT_Date</t>
+  </si>
+  <si>
+    <t>Local_Call</t>
   </si>
 </sst>
 </file>
@@ -1611,7 +1619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1690,6 +1698,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2533,7 +2542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+    <sheetView topLeftCell="T1" workbookViewId="0">
       <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
@@ -4943,10 +4952,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4956,10 +4965,11 @@
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4979,7 +4989,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>337</v>
       </c>
@@ -4993,7 +5003,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>338</v>
       </c>
@@ -5006,6 +5016,12 @@
       <c r="F3" s="6" t="s">
         <v>345</v>
       </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="36"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5014,10 +5030,102 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5223,369 +5331,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I17:I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" t="str">
-        <f>CONCATENATE(A2,"_Test")</f>
-        <v>ConsumerPrepaid_Test</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D5" si="0">CONCATENATE(A3,"_Test")</f>
-        <v>ConsumerPostpaid_Test</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>EnterprisePostpaid_Test</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>EnterprisePrepaid_Test</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB4"/>
-  <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection sqref="A1:AB4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>355</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" t="s">
-        <v>45</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="W4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB4" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5907,6 +5652,369 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I17:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" t="str">
+        <f>CONCATENATE(A2,"_Test")</f>
+        <v>ConsumerPrepaid_Test</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D5" si="0">CONCATENATE(A3,"_Test")</f>
+        <v>ConsumerPostpaid_Test</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>EnterprisePostpaid_Test</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>EnterprisePrepaid_Test</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection sqref="A1:AB4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K2">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView topLeftCell="I1" workbookViewId="0">
@@ -6179,7 +6287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -6252,7 +6360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -6325,7 +6433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -6416,7 +6524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -6500,7 +6608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB18"/>
   <sheetViews>
@@ -7064,7 +7172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -7151,7 +7259,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -7237,145 +7345,6 @@
       <c r="I3" s="3"/>
       <c r="J3" t="s">
         <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -7713,6 +7682,145 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7759,7 +7867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -7831,7 +7939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -7904,7 +8012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -7986,7 +8094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -10,9 +10,9 @@
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
     <sheet name="EnterprisePrepaid_Provision" sheetId="3" r:id="rId2"/>
     <sheet name="EnterprisePostpaid_Provision" sheetId="4" r:id="rId3"/>
-    <sheet name="EntPostpaid_Provision_OrdPay" sheetId="38" r:id="rId4"/>
+    <sheet name="EnterprisePostpaid_Prov_OrdPay" sheetId="38" r:id="rId4"/>
     <sheet name="ConsumerPostpaid_Provision" sheetId="2" r:id="rId5"/>
-    <sheet name="ConPostPaid_Provision_OrdPay" sheetId="37" r:id="rId6"/>
+    <sheet name="ConsumerPostpaid_Prov_OrdPay" sheetId="37" r:id="rId6"/>
     <sheet name="SIPT" sheetId="14" r:id="rId7"/>
     <sheet name="Modify" sheetId="6" r:id="rId8"/>
     <sheet name="SIMSwap" sheetId="12" r:id="rId9"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1735" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="444">
   <si>
     <t>TestCase</t>
   </si>
@@ -3356,8 +3356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5122,10 +5122,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z3"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5138,25 +5138,26 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -5175,64 +5176,80 @@
       <c r="F1" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="M1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="N1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="O1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>351</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="R1" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="S1" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="U1" s="18" t="s">
         <v>358</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="V1" s="18" t="s">
         <v>359</v>
       </c>
-      <c r="V1" s="18" t="s">
+      <c r="W1" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>361</v>
       </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>125</v>
       </c>
@@ -5245,47 +5262,55 @@
       <c r="H2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="19">
+      <c r="R2" s="19">
         <v>97412345678</v>
       </c>
-      <c r="R2" s="19" t="s">
+      <c r="S2" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="T2" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="T2" s="19" t="s">
+      <c r="U2" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="U2" s="19" t="s">
+      <c r="V2" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="19" t="s">
+      <c r="W2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="19" t="s">
+      <c r="X2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="19" t="s">
+      <c r="Y2" s="19" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Z2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>128</v>
       </c>
@@ -5298,34 +5323,35 @@
       <c r="H3" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="19"/>
+      <c r="J3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="19" t="s">
+      <c r="L3" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="R3" s="19">
         <v>97412345678</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="S3" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="S3" s="19" t="s">
+      <c r="T3" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="T3" s="19" t="s">
+      <c r="U3" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="U3" s="19" t="s">
+      <c r="V3" s="19" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8175,7 +8201,7 @@
   <dimension ref="A1:AQ11"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8558,7 +8584,7 @@
   <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z20" sqref="Z20"/>
+      <selection activeCell="V1" sqref="V1:AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9008,7 +9034,7 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E21"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="19" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -5032,7 +5032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -6554,11 +6554,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
@@ -6568,7 +6575,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>3</v>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="19" activeTab="25"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="23" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -33,19 +33,22 @@
     <sheet name="Resume" sheetId="8" r:id="rId24"/>
     <sheet name="UpgradePromotion_Account360" sheetId="34" r:id="rId25"/>
     <sheet name="Account360view" sheetId="35" r:id="rId26"/>
-    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId27"/>
-    <sheet name="Change_MSISDN" sheetId="17" r:id="rId28"/>
-    <sheet name="Consumer_Migration" sheetId="18" r:id="rId29"/>
-    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId30"/>
-    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId31"/>
-    <sheet name="BillPayment" sheetId="21" r:id="rId32"/>
-    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId33"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId34"/>
-    <sheet name="Barring" sheetId="15" r:id="rId35"/>
-    <sheet name="UnBarring" sheetId="16" r:id="rId36"/>
+    <sheet name="DunningProcess" sheetId="41" r:id="rId27"/>
+    <sheet name="DunningAction" sheetId="42" r:id="rId28"/>
+    <sheet name="ExitCriteria" sheetId="43" r:id="rId29"/>
+    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId30"/>
+    <sheet name="Change_MSISDN" sheetId="17" r:id="rId31"/>
+    <sheet name="Consumer_Migration" sheetId="18" r:id="rId32"/>
+    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId33"/>
+    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId34"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId35"/>
+    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId36"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId37"/>
+    <sheet name="Barring" sheetId="15" r:id="rId38"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId39"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId37"/>
+    <externalReference r:id="rId40"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -55,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="446">
   <si>
     <t>TestCase</t>
   </si>
@@ -1387,6 +1390,12 @@
   </si>
   <si>
     <t>Local_Call</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>BillingProfile</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1538,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1615,11 +1624,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1699,6 +1717,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3071,7 +3092,7 @@
   <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AN3"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4892,7 +4913,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5754,7 +5775,7 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection sqref="A1:AB4"/>
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6554,8 +6575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6643,562 +6664,52 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="51.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="46.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="62.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="26" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>358</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>422</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>377</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>425</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>378</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>428</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>379</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>431</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>380</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>434</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>435</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA1" s="17" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="D1" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AB2" s="19" t="s">
+      <c r="C2" s="19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="D3" t="s">
-        <v>393</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="P3" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="T3" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="X3" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB3" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>384</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB4" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>385</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB5" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>386</v>
-      </c>
-      <c r="E6" t="s">
-        <v>392</v>
-      </c>
-      <c r="I6" t="s">
-        <v>395</v>
-      </c>
-      <c r="M6" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>400</v>
-      </c>
-      <c r="U6" t="s">
-        <v>402</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB6" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA7" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB7" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="D8" t="s">
-        <v>393</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="L8" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="P8" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="T8" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="X8" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB8" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>358</v>
-      </c>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="30">
-        <v>97470899087</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>392</v>
-      </c>
-      <c r="E11" s="31">
-        <v>8959436734</v>
-      </c>
-      <c r="F11" s="31" t="s">
-        <v>393</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-    </row>
-    <row r="12" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="30">
-        <v>97489755046</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>395</v>
-      </c>
-      <c r="E12" s="31">
-        <v>5637448925</v>
-      </c>
-      <c r="F12" s="31">
-        <v>99900007765</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>396</v>
-      </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-    </row>
-    <row r="13" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="30">
-        <v>97489756692</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>397</v>
-      </c>
-      <c r="E13" s="31">
-        <v>7321895097</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>398</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>399</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="30">
-        <v>97478151045</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>400</v>
-      </c>
-      <c r="E14" s="31">
-        <v>7779562981</v>
-      </c>
-      <c r="F14" s="31">
-        <v>23457</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>401</v>
-      </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-    </row>
-    <row r="15" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="30">
-        <v>97478152922</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>402</v>
-      </c>
-      <c r="E15" s="31">
-        <v>9811140835</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>403</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-    </row>
-    <row r="16" spans="1:28" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="30">
-        <v>97478151043</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>404</v>
-      </c>
-      <c r="E16" s="31">
-        <v>7769191001</v>
-      </c>
-      <c r="F16" s="31">
-        <v>454345</v>
-      </c>
-      <c r="G16" s="31" t="s">
-        <v>365</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7207,85 +6718,50 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="M16" sqref="M16:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="D1" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="37" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7294,91 +6770,54 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" t="s">
-        <v>50</v>
-      </c>
+      <c r="C2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7715,6 +7154,750 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="51.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="62.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="26" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>425</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>378</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>428</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>434</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="AA1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D3" t="s">
+        <v>393</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="T3" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="X3" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB4" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB5" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E6" t="s">
+        <v>392</v>
+      </c>
+      <c r="I6" t="s">
+        <v>395</v>
+      </c>
+      <c r="M6" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>400</v>
+      </c>
+      <c r="U6" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB6" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="AA7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB7" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" t="s">
+        <v>393</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="T8" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="X8" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>391</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+    </row>
+    <row r="11" spans="1:28" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="30">
+        <v>97470899087</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="E11" s="31">
+        <v>8959436734</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+    </row>
+    <row r="12" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="30">
+        <v>97489755046</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>395</v>
+      </c>
+      <c r="E12" s="31">
+        <v>5637448925</v>
+      </c>
+      <c r="F12" s="31">
+        <v>99900007765</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>396</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+    </row>
+    <row r="13" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="30">
+        <v>97489756692</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="E13" s="31">
+        <v>7321895097</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>399</v>
+      </c>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+    </row>
+    <row r="14" spans="1:28" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="30">
+        <v>97478151045</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>400</v>
+      </c>
+      <c r="E14" s="31">
+        <v>7779562981</v>
+      </c>
+      <c r="F14" s="31">
+        <v>23457</v>
+      </c>
+      <c r="G14" s="31" t="s">
+        <v>401</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+    </row>
+    <row r="15" spans="1:28" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="30">
+        <v>97478152922</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="E15" s="31">
+        <v>9811140835</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>403</v>
+      </c>
+      <c r="G15" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:28" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="30">
+        <v>97478151043</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="E16" s="31">
+        <v>7769191001</v>
+      </c>
+      <c r="F16" s="31">
+        <v>454345</v>
+      </c>
+      <c r="G16" s="31" t="s">
+        <v>365</v>
+      </c>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="32"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7806,7 +7989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -7852,7 +8035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -7900,7 +8083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -7972,7 +8155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -8045,7 +8228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -8127,7 +8310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="23" activeTab="30"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="25" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -38,17 +38,18 @@
     <sheet name="ExitCriteria" sheetId="43" r:id="rId29"/>
     <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId30"/>
     <sheet name="Change_MSISDN" sheetId="17" r:id="rId31"/>
-    <sheet name="Consumer_Migration" sheetId="18" r:id="rId32"/>
-    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId33"/>
-    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId34"/>
-    <sheet name="BillPayment" sheetId="21" r:id="rId35"/>
-    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId36"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId37"/>
-    <sheet name="Barring" sheetId="15" r:id="rId38"/>
-    <sheet name="UnBarring" sheetId="16" r:id="rId39"/>
+    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId32"/>
+    <sheet name="Consumer_Migration" sheetId="18" r:id="rId33"/>
+    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId34"/>
+    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId35"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId36"/>
+    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId37"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId38"/>
+    <sheet name="Barring" sheetId="15" r:id="rId39"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId40"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId40"/>
+    <externalReference r:id="rId41"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="449">
   <si>
     <t>TestCase</t>
   </si>
@@ -1396,6 +1397,15 @@
   </si>
   <si>
     <t>BillingProfile</t>
+  </si>
+  <si>
+    <t>CPE</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>ONT_CPE</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1717,6 +1727,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7720,8 +7736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7804,6 +7820,118 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>369</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>371</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>447</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="37" t="s">
+        <v>448</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="F4" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -7896,7 +8024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -7989,7 +8117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -8035,7 +8163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -8083,7 +8211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -8155,7 +8283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -8228,7 +8356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -8243,82 +8371,6 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -8765,6 +8817,82 @@
     <cfRule type="duplicateValues" dxfId="21" priority="1"/>
     <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="25" activeTab="31"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <sheet name="Account360view" sheetId="35" r:id="rId26"/>
     <sheet name="DunningProcess" sheetId="41" r:id="rId27"/>
     <sheet name="DunningAction" sheetId="42" r:id="rId28"/>
-    <sheet name="ExitCriteria" sheetId="43" r:id="rId29"/>
+    <sheet name="CollectionExit" sheetId="43" r:id="rId29"/>
     <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId30"/>
     <sheet name="Change_MSISDN" sheetId="17" r:id="rId31"/>
     <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId32"/>
@@ -44,12 +44,13 @@
     <sheet name="Change_SmartLimit" sheetId="20" r:id="rId35"/>
     <sheet name="BillPayment" sheetId="21" r:id="rId36"/>
     <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId37"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId38"/>
-    <sheet name="Barring" sheetId="15" r:id="rId39"/>
-    <sheet name="UnBarring" sheetId="16" r:id="rId40"/>
+    <sheet name="Barring" sheetId="15" r:id="rId38"/>
+    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId39"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId40"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId41"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId41"/>
+    <externalReference r:id="rId42"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="452">
   <si>
     <t>TestCase</t>
   </si>
@@ -1171,9 +1172,6 @@
     <t>OSM_CPEP</t>
   </si>
   <si>
-    <t>OSM_SerialN</t>
-  </si>
-  <si>
     <t>OSM_CardID</t>
   </si>
   <si>
@@ -1406,6 +1404,18 @@
   </si>
   <si>
     <t>ONT_CPE</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>Deactivation</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Delete</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1657,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1733,7 +1743,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3107,8 +3123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,7 +3262,7 @@
         <v>78</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>33</v>
@@ -3343,7 +3359,7 @@
         <v>78</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>33</v>
@@ -3393,8 +3409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O2"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,6 +3418,7 @@
     <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
@@ -3520,13 +3537,13 @@
         <v>369</v>
       </c>
       <c r="AM1" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="AN1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>371</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.25">
@@ -3540,7 +3557,7 @@
         <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>33</v>
@@ -3612,7 +3629,7 @@
       </c>
       <c r="AH2" s="20"/>
       <c r="AI2" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AJ2" s="21"/>
       <c r="AK2" s="21"/>
@@ -3632,7 +3649,7 @@
         <v>54</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>33</v>
@@ -3670,7 +3687,7 @@
         <v>50</v>
       </c>
       <c r="AI3" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4992,7 +5009,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5092,7 +5109,7 @@
         <v>346</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5143,7 +5160,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>32</v>
@@ -6080,8 +6097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6501,7 +6518,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6592,7 +6609,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6710,10 +6727,10 @@
         <v>344</v>
       </c>
       <c r="E1" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>444</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6763,7 +6780,7 @@
         <v>344</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6789,7 +6806,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6819,21 +6836,23 @@
         <v>139</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
+        <v>440</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7216,76 +7235,76 @@
         <v>358</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>420</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="I1" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="H1" s="18" t="s">
-        <v>423</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="J1" s="18" t="s">
+      <c r="L1" s="18" t="s">
         <v>425</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="M1" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="O1" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="L1" s="18" t="s">
-        <v>426</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="N1" s="18" t="s">
+      <c r="P1" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="Q1" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="S1" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="P1" s="18" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="R1" s="18" t="s">
+      <c r="T1" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="U1" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="W1" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="T1" s="18" t="s">
-        <v>432</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="V1" s="18" t="s">
+      <c r="X1" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="W1" s="18" t="s">
-        <v>381</v>
-      </c>
-      <c r="X1" s="18" t="s">
+      <c r="Y1" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="Y1" s="18" t="s">
+      <c r="Z1" s="18" t="s">
         <v>436</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>437</v>
       </c>
       <c r="AA1" s="17" t="s">
         <v>3</v>
@@ -7296,40 +7315,40 @@
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
       <c r="W2" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X2" s="6"/>
       <c r="Y2" s="6"/>
@@ -7343,33 +7362,33 @@
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="L3" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="P3" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="T3" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U3" s="6"/>
       <c r="V3" s="6"/>
       <c r="X3" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
@@ -7382,40 +7401,40 @@
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
       <c r="V4" s="6"/>
       <c r="W4" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
@@ -7429,40 +7448,40 @@
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
       <c r="V5" s="6"/>
       <c r="W5" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="X5" s="6"/>
       <c r="Y5" s="6"/>
@@ -7476,25 +7495,25 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="U6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="Y6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AA6" s="19" t="s">
         <v>32</v>
@@ -7505,37 +7524,37 @@
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="X7" s="6"/>
       <c r="Y7" s="6"/>
       <c r="Z7" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AA7" s="19" t="s">
         <v>32</v>
@@ -7546,33 +7565,33 @@
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="L8" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="P8" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="T8" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="U8" s="6"/>
       <c r="V8" s="6"/>
       <c r="X8" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
@@ -7589,13 +7608,13 @@
         <v>91</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>389</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="F10" s="29" t="s">
         <v>390</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>391</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>358</v>
@@ -7609,16 +7628,16 @@
         <v>97470899087</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E11" s="31">
         <v>8959436734</v>
       </c>
       <c r="F11" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="G11" s="31" t="s">
         <v>393</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>394</v>
       </c>
       <c r="H11" s="34"/>
       <c r="I11" s="34"/>
@@ -7629,7 +7648,7 @@
         <v>97489755046</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E12" s="31">
         <v>5637448925</v>
@@ -7638,7 +7657,7 @@
         <v>99900007765</v>
       </c>
       <c r="G12" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H12" s="34"/>
       <c r="I12" s="34"/>
@@ -7649,16 +7668,16 @@
         <v>97489756692</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E13" s="31">
         <v>7321895097</v>
       </c>
       <c r="F13" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="G13" s="31" t="s">
         <v>398</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>399</v>
       </c>
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
@@ -7669,7 +7688,7 @@
         <v>97478151045</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E14" s="31">
         <v>7779562981</v>
@@ -7678,7 +7697,7 @@
         <v>23457</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
@@ -7689,13 +7708,13 @@
         <v>97478152922</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E15" s="31">
         <v>9811140835</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>75</v>
@@ -7709,7 +7728,7 @@
         <v>97478151043</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E16" s="31">
         <v>7769191001</v>
@@ -7737,7 +7756,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7823,8 +7842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7872,53 +7891,53 @@
         <v>369</v>
       </c>
       <c r="J1" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="K1" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="17" t="s">
-        <v>372</v>
-      </c>
       <c r="L1" s="17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="F2" s="39" t="s">
+        <v>372</v>
+      </c>
+      <c r="F2" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="F3" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="F4" s="38" t="s">
+        <v>372</v>
+      </c>
+      <c r="F4" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8285,83 +8304,10 @@
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8435,6 +8381,59 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8507,13 +8506,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>127</v>
@@ -8638,7 +8637,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -8740,7 +8739,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -8823,10 +8822,83 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9351,8 +9423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9408,13 +9480,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>440</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>127</v>
@@ -9518,7 +9590,7 @@
         <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="8"/>
@@ -9603,7 +9675,7 @@
         <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3"/>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="10" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="34" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,12 @@
     <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId39"/>
     <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId40"/>
     <sheet name="UnBarring" sheetId="16" r:id="rId41"/>
+    <sheet name="ETHERNET" sheetId="46" r:id="rId42"/>
+    <sheet name="LEASEDLINE" sheetId="47" r:id="rId43"/>
+    <sheet name="IPLC" sheetId="48" r:id="rId44"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId42"/>
+    <externalReference r:id="rId45"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -60,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="501">
   <si>
     <t>TestCase</t>
   </si>
@@ -1416,13 +1419,160 @@
   </si>
   <si>
     <t>Delete</t>
+  </si>
+  <si>
+    <t>Kahramaa_ID1</t>
+  </si>
+  <si>
+    <t>Kahramaa_ID2</t>
+  </si>
+  <si>
+    <t>VPN Access 1</t>
+  </si>
+  <si>
+    <t>VPN Access 2</t>
+  </si>
+  <si>
+    <t>VPN Node 1</t>
+  </si>
+  <si>
+    <t>VPN Node2</t>
+  </si>
+  <si>
+    <t>Virtual Connection</t>
+  </si>
+  <si>
+    <t>Layer2 Features</t>
+  </si>
+  <si>
+    <t>Layer2 Service - Access</t>
+  </si>
+  <si>
+    <t>ETHERNET</t>
+  </si>
+  <si>
+    <t>VFQA_Ethernet</t>
+  </si>
+  <si>
+    <t>Layer2 Ethernet Network</t>
+  </si>
+  <si>
+    <t>Layer2 Ethernet VPN Access</t>
+  </si>
+  <si>
+    <t>Layer2 Ethernet VPN Node</t>
+  </si>
+  <si>
+    <t>Layer2 Ethernet Virtual Connection</t>
+  </si>
+  <si>
+    <t>Layer2 Ethernet- Class of Services 1</t>
+  </si>
+  <si>
+    <t>Ethernet VPN Access 1Gb</t>
+  </si>
+  <si>
+    <t>Virtual Connection1</t>
+  </si>
+  <si>
+    <t>Virtual Connection2</t>
+  </si>
+  <si>
+    <t>LL Node Features</t>
+  </si>
+  <si>
+    <t>LL Charges</t>
+  </si>
+  <si>
+    <t>Connection_LL Charges</t>
+  </si>
+  <si>
+    <t>LL Features</t>
+  </si>
+  <si>
+    <t>LL SLA</t>
+  </si>
+  <si>
+    <t>LL SLA2</t>
+  </si>
+  <si>
+    <t>LEASEDLINE</t>
+  </si>
+  <si>
+    <t>VFQA_Leasedline</t>
+  </si>
+  <si>
+    <t>LL VPN Network</t>
+  </si>
+  <si>
+    <t>LL Node</t>
+  </si>
+  <si>
+    <t>LL Connection</t>
+  </si>
+  <si>
+    <t>L.L -Vodafone Managed service</t>
+  </si>
+  <si>
+    <t>L.L - Excess Construction Charge</t>
+  </si>
+  <si>
+    <t>L.L  Connection Charge</t>
+  </si>
+  <si>
+    <t>Leased Line 100Mb</t>
+  </si>
+  <si>
+    <t>Standard SLA(LL)</t>
+  </si>
+  <si>
+    <t>Enhanced SLA(LL)</t>
+  </si>
+  <si>
+    <t>IPLC Node Features</t>
+  </si>
+  <si>
+    <t>IPLC Features</t>
+  </si>
+  <si>
+    <t>IPLC Service</t>
+  </si>
+  <si>
+    <t>IPLC Charges</t>
+  </si>
+  <si>
+    <t>IPLC</t>
+  </si>
+  <si>
+    <t>VFQA_IPLC</t>
+  </si>
+  <si>
+    <t>IPLC VPN Network</t>
+  </si>
+  <si>
+    <t>IPLC Node</t>
+  </si>
+  <si>
+    <t>IPLC Connection</t>
+  </si>
+  <si>
+    <t>IPLC -Vodafone Managed service</t>
+  </si>
+  <si>
+    <t>IPLC- Full Separacy resilience</t>
+  </si>
+  <si>
+    <t>International Leased Line 100Mb</t>
+  </si>
+  <si>
+    <t>International Private L.L  Connection Charge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1530,6 +1680,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1657,7 +1820,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1752,11 +1915,142 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="50">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2934,16 +3228,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="37" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3394,12 +3688,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V3">
-    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3409,7 +3703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection activeCell="AG18" sqref="AG18"/>
     </sheetView>
   </sheetViews>
@@ -3692,12 +3986,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5719,12 +6013,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V3">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6081,12 +6375,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6356,12 +6650,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7176,12 +7470,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V3">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8809,12 +9103,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L1:M1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y3">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8965,6 +9259,1287 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BA7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" customWidth="1"/>
+    <col min="18" max="18" width="19.7109375" customWidth="1"/>
+    <col min="19" max="19" width="25.28515625" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" customWidth="1"/>
+    <col min="21" max="21" width="18" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" customWidth="1"/>
+    <col min="41" max="41" width="27.85546875" customWidth="1"/>
+    <col min="46" max="46" width="26.85546875" customWidth="1"/>
+    <col min="47" max="47" width="32.85546875" customWidth="1"/>
+    <col min="48" max="48" width="30.140625" customWidth="1"/>
+    <col min="49" max="49" width="34.140625" customWidth="1"/>
+    <col min="50" max="50" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT1" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="43" t="s">
+        <v>454</v>
+      </c>
+      <c r="AV1" s="42" t="s">
+        <v>455</v>
+      </c>
+      <c r="AW1" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="AX1" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="AY1" s="42" t="s">
+        <v>458</v>
+      </c>
+      <c r="AZ1" s="42" t="s">
+        <v>459</v>
+      </c>
+      <c r="BA1" s="42" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT2" s="44" t="s">
+        <v>463</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>464</v>
+      </c>
+      <c r="AV2" s="45" t="s">
+        <v>464</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>465</v>
+      </c>
+      <c r="AX2" s="45" t="s">
+        <v>465</v>
+      </c>
+      <c r="AY2" s="45" t="s">
+        <v>466</v>
+      </c>
+      <c r="AZ2" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="BA2" s="45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="AI3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="AI4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="AI5" s="6"/>
+      <c r="AK5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="AO6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="L7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="AO7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="11" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BD7"/>
+  <sheetViews>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BB10" sqref="BB10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11.85546875" customWidth="1"/>
+    <col min="49" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="29" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="31.28515625" customWidth="1"/>
+    <col min="53" max="53" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="21.28515625" customWidth="1"/>
+    <col min="55" max="55" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT1" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="AV1" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW1" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="AX1" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="AY1" s="42" t="s">
+        <v>471</v>
+      </c>
+      <c r="AZ1" s="42" t="s">
+        <v>472</v>
+      </c>
+      <c r="BA1" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="BB1" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="BC1" s="42" t="s">
+        <v>475</v>
+      </c>
+      <c r="BD1" s="42" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT2" s="46" t="s">
+        <v>479</v>
+      </c>
+      <c r="AU2" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="AV2" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="AW2" s="47" t="s">
+        <v>481</v>
+      </c>
+      <c r="AX2" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="AY2" s="45" t="s">
+        <v>482</v>
+      </c>
+      <c r="AZ2" s="45" t="s">
+        <v>483</v>
+      </c>
+      <c r="BA2" s="45" t="s">
+        <v>484</v>
+      </c>
+      <c r="BB2" s="45" t="s">
+        <v>485</v>
+      </c>
+      <c r="BC2" s="45" t="s">
+        <v>486</v>
+      </c>
+      <c r="BD2" s="45" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="L3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="AI3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="L4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="AI4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="L5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="AI5" s="6"/>
+      <c r="AK5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="L6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="AO6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="L7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="AO7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BB7"/>
+  <sheetViews>
+    <sheetView topLeftCell="AX1" workbookViewId="0">
+      <selection activeCell="BB10" sqref="BB10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="46" max="46" width="23.85546875" customWidth="1"/>
+    <col min="47" max="47" width="31.5703125" customWidth="1"/>
+    <col min="48" max="48" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="49" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="39.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT1" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU1" s="42" t="s">
+        <v>456</v>
+      </c>
+      <c r="AV1" s="42" t="s">
+        <v>457</v>
+      </c>
+      <c r="AW1" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="AX1" s="42" t="s">
+        <v>470</v>
+      </c>
+      <c r="AY1" s="42" t="s">
+        <v>488</v>
+      </c>
+      <c r="AZ1" s="42" t="s">
+        <v>489</v>
+      </c>
+      <c r="BA1" s="42" t="s">
+        <v>490</v>
+      </c>
+      <c r="BB1" s="42" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" t="s">
+        <v>492</v>
+      </c>
+      <c r="G2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" t="s">
+        <v>36</v>
+      </c>
+      <c r="X2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT2" s="45" t="s">
+        <v>494</v>
+      </c>
+      <c r="AU2" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="AV2" s="45" t="s">
+        <v>495</v>
+      </c>
+      <c r="AW2" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="AX2" s="45" t="s">
+        <v>496</v>
+      </c>
+      <c r="AY2" s="45" t="s">
+        <v>497</v>
+      </c>
+      <c r="AZ2" s="45" t="s">
+        <v>498</v>
+      </c>
+      <c r="BA2" s="45" t="s">
+        <v>499</v>
+      </c>
+      <c r="BB2" s="45" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L3" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="AI3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L4" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="AI4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="AI5" s="6"/>
+      <c r="AK5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="AO6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="L7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="AO7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10320,12 +11895,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="34" activeTab="41"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="34" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -41,19 +41,20 @@
     <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId32"/>
     <sheet name="Consumer_Migration" sheetId="18" r:id="rId33"/>
     <sheet name="Enterprise_Migration" sheetId="19" r:id="rId34"/>
-    <sheet name="Change_SmartLimit" sheetId="20" r:id="rId35"/>
-    <sheet name="BillPayment" sheetId="21" r:id="rId36"/>
-    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId37"/>
-    <sheet name="Barring" sheetId="15" r:id="rId38"/>
-    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId39"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId40"/>
-    <sheet name="UnBarring" sheetId="16" r:id="rId41"/>
-    <sheet name="ETHERNET" sheetId="46" r:id="rId42"/>
-    <sheet name="LEASEDLINE" sheetId="47" r:id="rId43"/>
-    <sheet name="IPLC" sheetId="48" r:id="rId44"/>
+    <sheet name="ModifySmartLimit" sheetId="20" r:id="rId35"/>
+    <sheet name="ModifySmartLimit_Acc360" sheetId="49" r:id="rId36"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId37"/>
+    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId38"/>
+    <sheet name="Barring" sheetId="15" r:id="rId39"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId40"/>
+    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId41"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId42"/>
+    <sheet name="ETHERNET" sheetId="46" r:id="rId43"/>
+    <sheet name="LEASEDLINE" sheetId="47" r:id="rId44"/>
+    <sheet name="IPLC" sheetId="48" r:id="rId45"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId45"/>
+    <externalReference r:id="rId46"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2159" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="508">
   <si>
     <t>TestCase</t>
   </si>
@@ -1566,13 +1567,34 @@
   </si>
   <si>
     <t>International Private L.L  Connection Charge</t>
+  </si>
+  <si>
+    <t>Spend_Limit</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>ConsumerPrepaid_Test</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>ConsumerPostpaid_Test</t>
+  </si>
+  <si>
+    <t>EnterprisePostpaid_Test</t>
+  </si>
+  <si>
+    <t>EnterprisePrepaid_Test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1694,6 +1716,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1721,7 +1763,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1816,11 +1858,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1909,12 +1964,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1926,6 +1975,36 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8201,11 +8280,11 @@
       <c r="E2" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -8214,11 +8293,11 @@
       <c r="E3" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -8227,11 +8306,11 @@
       <c r="E4" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8432,15 +8511,19 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8448,26 +8531,23 @@
         <v>91</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>93</v>
+        <v>501</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="D2" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="E2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8477,6 +8557,50 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>501</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -8524,21 +8648,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18" t="s">
@@ -8547,48 +8673,78 @@
       <c r="C1" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" t="str">
-        <f>CONCATENATE(A2,"_Test")</f>
-        <v>ConsumerPrepaid_Test</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D5" si="0">CONCATENATE(A3,"_Test")</f>
-        <v>ConsumerPostpaid_Test</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>EnterprisePostpaid_Test</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>EnterprisePrepaid_Test</v>
+      <c r="B5" s="24"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -8596,7 +8752,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -8675,59 +8831,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>448</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>451</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9116,6 +9219,135 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9187,88 +9419,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9439,28 +9595,28 @@
       <c r="AS1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AT1" s="42" t="s">
+      <c r="AT1" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="43" t="s">
+      <c r="AU1" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="AV1" s="42" t="s">
+      <c r="AV1" s="40" t="s">
         <v>455</v>
       </c>
-      <c r="AW1" s="43" t="s">
+      <c r="AW1" s="41" t="s">
         <v>456</v>
       </c>
-      <c r="AX1" s="42" t="s">
+      <c r="AX1" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="AY1" s="42" t="s">
+      <c r="AY1" s="40" t="s">
         <v>458</v>
       </c>
-      <c r="AZ1" s="42" t="s">
+      <c r="AZ1" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="BA1" s="42" t="s">
+      <c r="BA1" s="40" t="s">
         <v>460</v>
       </c>
     </row>
@@ -9574,28 +9730,28 @@
       <c r="AS2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AT2" s="44" t="s">
+      <c r="AT2" s="42" t="s">
         <v>463</v>
       </c>
       <c r="AU2" t="s">
         <v>464</v>
       </c>
-      <c r="AV2" s="45" t="s">
+      <c r="AV2" s="43" t="s">
         <v>464</v>
       </c>
       <c r="AW2" t="s">
         <v>465</v>
       </c>
-      <c r="AX2" s="45" t="s">
+      <c r="AX2" s="43" t="s">
         <v>465</v>
       </c>
-      <c r="AY2" s="45" t="s">
+      <c r="AY2" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="AZ2" s="45" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>467</v>
       </c>
-      <c r="BA2" s="45" t="s">
+      <c r="BA2" s="43" t="s">
         <v>468</v>
       </c>
     </row>
@@ -9694,7 +9850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD7"/>
   <sheetViews>
@@ -9705,7 +9861,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="46" max="46" width="15.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.28515625" style="46" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="11.85546875" customWidth="1"/>
     <col min="49" max="50" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -9853,37 +10009,37 @@
       <c r="AS1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AT1" s="42" t="s">
+      <c r="AT1" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="42" t="s">
+      <c r="AU1" s="40" t="s">
         <v>456</v>
       </c>
-      <c r="AV1" s="42" t="s">
+      <c r="AV1" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="AW1" s="42" t="s">
+      <c r="AW1" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="AX1" s="42" t="s">
+      <c r="AX1" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="AY1" s="42" t="s">
+      <c r="AY1" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="AZ1" s="42" t="s">
+      <c r="AZ1" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="BA1" s="42" t="s">
+      <c r="BA1" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="BB1" s="42" t="s">
+      <c r="BB1" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="BC1" s="42" t="s">
+      <c r="BC1" s="40" t="s">
         <v>475</v>
       </c>
-      <c r="BD1" s="42" t="s">
+      <c r="BD1" s="40" t="s">
         <v>476</v>
       </c>
     </row>
@@ -9997,37 +10153,37 @@
       <c r="AS2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AT2" s="46" t="s">
+      <c r="AT2" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="AU2" s="45" t="s">
+      <c r="AU2" s="43" t="s">
         <v>480</v>
       </c>
-      <c r="AV2" s="45" t="s">
+      <c r="AV2" s="43" t="s">
         <v>480</v>
       </c>
-      <c r="AW2" s="47" t="s">
+      <c r="AW2" s="45" t="s">
         <v>481</v>
       </c>
-      <c r="AX2" s="45" t="s">
+      <c r="AX2" s="43" t="s">
         <v>481</v>
       </c>
-      <c r="AY2" s="45" t="s">
+      <c r="AY2" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="AZ2" s="45" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>483</v>
       </c>
-      <c r="BA2" s="45" t="s">
+      <c r="BA2" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="BB2" s="45" t="s">
+      <c r="BB2" s="43" t="s">
         <v>485</v>
       </c>
-      <c r="BC2" s="45" t="s">
+      <c r="BC2" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="BD2" s="45" t="s">
+      <c r="BD2" s="43" t="s">
         <v>487</v>
       </c>
     </row>
@@ -10125,7 +10281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB7"/>
   <sheetViews>
@@ -10284,31 +10440,31 @@
       <c r="AS1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AT1" s="42" t="s">
+      <c r="AT1" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="42" t="s">
+      <c r="AU1" s="40" t="s">
         <v>456</v>
       </c>
-      <c r="AV1" s="42" t="s">
+      <c r="AV1" s="40" t="s">
         <v>457</v>
       </c>
-      <c r="AW1" s="42" t="s">
+      <c r="AW1" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="AX1" s="42" t="s">
+      <c r="AX1" s="40" t="s">
         <v>470</v>
       </c>
-      <c r="AY1" s="42" t="s">
+      <c r="AY1" s="40" t="s">
         <v>488</v>
       </c>
-      <c r="AZ1" s="42" t="s">
+      <c r="AZ1" s="40" t="s">
         <v>489</v>
       </c>
-      <c r="BA1" s="42" t="s">
+      <c r="BA1" s="40" t="s">
         <v>490</v>
       </c>
-      <c r="BB1" s="42" t="s">
+      <c r="BB1" s="40" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10422,31 +10578,31 @@
       <c r="AS2" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="AT2" s="45" t="s">
+      <c r="AT2" s="43" t="s">
         <v>494</v>
       </c>
-      <c r="AU2" s="45" t="s">
+      <c r="AU2" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="AV2" s="45" t="s">
+      <c r="AV2" s="43" t="s">
         <v>495</v>
       </c>
-      <c r="AW2" s="45" t="s">
+      <c r="AW2" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="AX2" s="45" t="s">
+      <c r="AX2" s="43" t="s">
         <v>496</v>
       </c>
-      <c r="AY2" s="45" t="s">
+      <c r="AY2" s="43" t="s">
         <v>497</v>
       </c>
-      <c r="AZ2" s="45" t="s">
+      <c r="AZ2" s="43" t="s">
         <v>498</v>
       </c>
-      <c r="BA2" s="45" t="s">
+      <c r="BA2" s="43" t="s">
         <v>499</v>
       </c>
-      <c r="BB2" s="45" t="s">
+      <c r="BB2" s="43" t="s">
         <v>500</v>
       </c>
     </row>

--- a/Framework/Storage/CommonDirectory.xlsx
+++ b/Framework/Storage/CommonDirectory.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="34" activeTab="34"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="800" firstSheet="20" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="ConsumerPrepaid_Provision" sheetId="1" r:id="rId1"/>
@@ -28,33 +28,36 @@
     <sheet name="ConsumerPostpaid_GuidedJourney" sheetId="32" r:id="rId19"/>
     <sheet name="SIMSwap_Guided_Journey" sheetId="27" r:id="rId20"/>
     <sheet name="TransferOfService" sheetId="29" r:id="rId21"/>
-    <sheet name="TransferOfOwnership" sheetId="33" r:id="rId22"/>
-    <sheet name="Suspend" sheetId="7" r:id="rId23"/>
-    <sheet name="Resume" sheetId="8" r:id="rId24"/>
-    <sheet name="UpgradePromotion_Account360" sheetId="34" r:id="rId25"/>
-    <sheet name="Account360view" sheetId="35" r:id="rId26"/>
-    <sheet name="DunningProcess" sheetId="41" r:id="rId27"/>
-    <sheet name="DunningAction" sheetId="42" r:id="rId28"/>
-    <sheet name="CollectionExit" sheetId="43" r:id="rId29"/>
-    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId30"/>
-    <sheet name="Change_MSISDN" sheetId="17" r:id="rId31"/>
-    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId32"/>
-    <sheet name="Consumer_Migration" sheetId="18" r:id="rId33"/>
-    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId34"/>
-    <sheet name="ModifySmartLimit" sheetId="20" r:id="rId35"/>
-    <sheet name="ModifySmartLimit_Acc360" sheetId="49" r:id="rId36"/>
-    <sheet name="BillPayment" sheetId="21" r:id="rId37"/>
-    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId38"/>
-    <sheet name="Barring" sheetId="15" r:id="rId39"/>
-    <sheet name="UnBarring" sheetId="16" r:id="rId40"/>
-    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId41"/>
-    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId42"/>
-    <sheet name="ETHERNET" sheetId="46" r:id="rId43"/>
-    <sheet name="LEASEDLINE" sheetId="47" r:id="rId44"/>
-    <sheet name="IPLC" sheetId="48" r:id="rId45"/>
+    <sheet name="TransferOfOwnership_C2C" sheetId="33" r:id="rId22"/>
+    <sheet name="TransferOfOwnership_E2E" sheetId="51" r:id="rId23"/>
+    <sheet name="TransferOfOwnership_C2E" sheetId="52" r:id="rId24"/>
+    <sheet name="TransferOfOwnership_E2C" sheetId="53" r:id="rId25"/>
+    <sheet name="Suspend" sheetId="7" r:id="rId26"/>
+    <sheet name="Resume" sheetId="8" r:id="rId27"/>
+    <sheet name="UpgradePromotion_Account360" sheetId="34" r:id="rId28"/>
+    <sheet name="Account360view" sheetId="35" r:id="rId29"/>
+    <sheet name="DunningProcess" sheetId="41" r:id="rId30"/>
+    <sheet name="DunningAction" sheetId="42" r:id="rId31"/>
+    <sheet name="CollectionExit" sheetId="43" r:id="rId32"/>
+    <sheet name="OpenUI_AccesRrights_6Segments" sheetId="36" r:id="rId33"/>
+    <sheet name="Change_MSISDN" sheetId="17" r:id="rId34"/>
+    <sheet name="FL_ONT_CPE_Replacement" sheetId="44" r:id="rId35"/>
+    <sheet name="Consumer_Migration" sheetId="18" r:id="rId36"/>
+    <sheet name="Enterprise_Migration" sheetId="19" r:id="rId37"/>
+    <sheet name="ModifySmartLimit" sheetId="20" r:id="rId38"/>
+    <sheet name="ModifySmartLimit_Acc360" sheetId="49" r:id="rId39"/>
+    <sheet name="BillPayment" sheetId="21" r:id="rId40"/>
+    <sheet name="SIMSwap_Global_Search" sheetId="28" r:id="rId41"/>
+    <sheet name="Barring" sheetId="15" r:id="rId42"/>
+    <sheet name="UnBarring" sheetId="16" r:id="rId43"/>
+    <sheet name="Postpaid_USSD_Act-DeAct" sheetId="45" r:id="rId44"/>
+    <sheet name="Change_PrimaryNumber" sheetId="11" r:id="rId45"/>
+    <sheet name="ETHERNET" sheetId="46" r:id="rId46"/>
+    <sheet name="LEASEDLINE" sheetId="47" r:id="rId47"/>
+    <sheet name="IPLC" sheetId="48" r:id="rId48"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId46"/>
+    <externalReference r:id="rId49"/>
   </externalReferences>
   <definedNames>
     <definedName name="UseCase">[1]LOV!$A$2:$A$25</definedName>
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2254" uniqueCount="508">
   <si>
     <t>TestCase</t>
   </si>
@@ -1875,7 +1878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1975,9 +1978,6 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2005,11 +2005,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="58">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3307,16 +3393,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2">
-    <cfRule type="duplicateValues" dxfId="49" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="48" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="57" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="56" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3">
-    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3767,12 +3853,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V3">
-    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4065,12 +4151,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6092,12 +6178,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V3">
-    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6454,12 +6540,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
-    <cfRule type="duplicateValues" dxfId="19" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6471,7 +6557,7 @@
   <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V18" sqref="V18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6729,6 +6815,297 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2">
+    <cfRule type="duplicateValues" dxfId="23" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB1" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" t="s">
+        <v>45</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="47"/>
+      <c r="B4" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="W4" t="s">
+        <v>45</v>
+      </c>
+      <c r="X4" s="3"/>
+      <c r="Y4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K2">
     <cfRule type="duplicateValues" dxfId="15" priority="3"/>
     <cfRule type="duplicateValues" dxfId="14" priority="4"/>
   </conditionalFormatting>
@@ -6740,7 +7117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -6813,7 +7190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -6886,7 +7263,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -6977,7 +7354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -7061,170 +7438,6 @@
       </c>
       <c r="E5" s="25" t="s">
         <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M16" sqref="M16:N16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38" t="s">
-        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -7549,18 +7762,182 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V2:V3">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M16" sqref="M16:N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38" t="s">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB18"/>
   <sheetViews>
@@ -8124,7 +8501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -8211,7 +8588,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
@@ -8280,11 +8657,11 @@
       <c r="E2" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
@@ -8293,11 +8670,11 @@
       <c r="E3" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F3" s="48" t="s">
+      <c r="F3" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="37" t="s">
@@ -8306,11 +8683,11 @@
       <c r="E4" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8323,7 +8700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -8416,7 +8793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -8509,11 +8886,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
@@ -8556,7 +8933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -8572,261 +8949,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="49" t="s">
         <v>501</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="50" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53" t="s">
+      <c r="B2" s="54"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52" t="s">
         <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>347</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="25" t="s">
-        <v>507</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>504</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -9206,18 +9349,252 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L1:M1">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="34" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y2:Y3">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>347</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="25" t="s">
+        <v>503</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="25" t="s">
+        <v>507</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>504</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -9293,7 +9670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9346,7 +9723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -9419,7 +9796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA7"/>
   <sheetViews>
@@ -9850,7 +10227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD7"/>
   <sheetViews>
@@ -10281,7 +10658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB7"/>
   <sheetViews>
@@ -12051,12 +12428,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:H1">
-    <cfRule type="duplicateValues" dxfId="31" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T2">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
